--- a/src/test/java/com/appname/testdata/Approach2_TestData.xlsx
+++ b/src/test/java/com/appname/testdata/Approach2_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\Java-Selenium-TestNG-Framework\src\test\java\com\appname\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akansh\eclipse-workspace\Java-Selenium-TestNG-Framework\src\test\java\com\appname\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6A607F-8F15-4EA5-9590-ACD02905B74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0FC291-1E8C-406C-AE5C-61D2559AE038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,12 +378,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
